--- a/biology/Origine et évolution du vivant/Extinction_Trias-Jurassique/Extinction_Trias-Jurassique.xlsx
+++ b/biology/Origine et évolution du vivant/Extinction_Trias-Jurassique/Extinction_Trias-Jurassique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
     Intensité des extinctions marines au cours du Phanérozoïque
@@ -516,9 +528,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La datation par l'uranium-plomb de cendres volcaniques (du bassin de Pucará, dans le nord du Pérou, et des chutes du canyon de New York (en), dans la sierra Nevada) et de zircons inclus dans le basalte de la montagne du Nord (Nouvelle-Écosse), marqueurs de la limite Trias-Jurassique, a donné un âge très précis de 201,31 ± 0,43 Ma[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La datation par l'uranium-plomb de cendres volcaniques (du bassin de Pucará, dans le nord du Pérou, et des chutes du canyon de New York (en), dans la sierra Nevada) et de zircons inclus dans le basalte de la montagne du Nord (Nouvelle-Écosse), marqueurs de la limite Trias-Jurassique, a donné un âge très précis de 201,31 ± 0,43 Ma.
 </t>
         </is>
       </c>
@@ -547,13 +561,15 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cause ou les causes conjuguées responsables de l'extinction majeure de la fin du Trias ne sont pas connues. Plusieurs théories sont avancées :
 un changement climatique graduel ou des fluctuations du niveau de la mer[a] ;
 un ou plusieurs impacts d'astéroïdes, mais on ne connaît pas de très grand cratère d'impact datant de cette période, seulement une chaîne de cratères de taille moyenne ;
-des épisodes volcaniques ayant entraîné un réchauffement climatique global, liés à l'ouverture de la province magmatique centre atlantique[2] et entraînant le dégazage des hydrates de clathrate ;
-des émissions de substances volcaniques toxiques à fortes concentrations pulsées de mercure, observées dans les sédiments marins et terrestres à la limite Trias-Jurassique dans le sud de la Scandinavie et le nord de l’Allemagne en corrélation avec l’activité volcanique intense de la province magmatique centre atlantique. L'augmentation des niveaux de mercure, un élément génotoxique, est également corrélée à une fréquence élevée de spores de fougères anormales, indiquant un stress environnemental grave et des perturbations génétiques chez les plantes mères[3],[4].</t>
+des épisodes volcaniques ayant entraîné un réchauffement climatique global, liés à l'ouverture de la province magmatique centre atlantique et entraînant le dégazage des hydrates de clathrate ;
+des émissions de substances volcaniques toxiques à fortes concentrations pulsées de mercure, observées dans les sédiments marins et terrestres à la limite Trias-Jurassique dans le sud de la Scandinavie et le nord de l’Allemagne en corrélation avec l’activité volcanique intense de la province magmatique centre atlantique. L'augmentation des niveaux de mercure, un élément génotoxique, est également corrélée à une fréquence élevée de spores de fougères anormales, indiquant un stress environnemental grave et des perturbations génétiques chez les plantes mères,.</t>
         </is>
       </c>
     </row>
